--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb3-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb3-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Efnb3</t>
   </si>
   <si>
     <t>Ephb2</t>
   </si>
   <si>
-    <t>Neutrophils</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,46 +543,46 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.2222225</v>
+        <v>0.3050205</v>
       </c>
       <c r="H2">
-        <v>0.444445</v>
+        <v>0.6100410000000001</v>
       </c>
       <c r="I2">
-        <v>0.2026211956904957</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="J2">
-        <v>0.1780425712608937</v>
+        <v>0.1761044107725932</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.082080666666666</v>
+        <v>0.07307950000000001</v>
       </c>
       <c r="N2">
-        <v>9.246241999999999</v>
+        <v>0.146159</v>
       </c>
       <c r="O2">
-        <v>0.822428495022819</v>
+        <v>0.01914333930962835</v>
       </c>
       <c r="P2">
-        <v>0.8679967027127143</v>
+        <v>0.01361193537229401</v>
       </c>
       <c r="Q2">
-        <v>0.6849076709483332</v>
+        <v>0.02229074562975</v>
       </c>
       <c r="R2">
-        <v>4.10944602569</v>
+        <v>0.08916298251900001</v>
       </c>
       <c r="S2">
-        <v>0.1666414450314585</v>
+        <v>0.003881643001254409</v>
       </c>
       <c r="T2">
-        <v>0.1545403647969492</v>
+        <v>0.002397121858212456</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.2222225</v>
+        <v>0.3050205</v>
       </c>
       <c r="H3">
-        <v>0.444445</v>
+        <v>0.6100410000000001</v>
       </c>
       <c r="I3">
-        <v>0.2026211956904957</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="J3">
-        <v>0.1780425712608937</v>
+        <v>0.1761044107725932</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01806466666666667</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N3">
-        <v>0.05419400000000001</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O3">
-        <v>0.004820411347579554</v>
+        <v>0.8073579592313238</v>
       </c>
       <c r="P3">
-        <v>0.005087495363717806</v>
+        <v>0.8611118613331405</v>
       </c>
       <c r="Q3">
-        <v>0.004014375388333334</v>
+        <v>0.940097785987</v>
       </c>
       <c r="R3">
-        <v>0.02408625233</v>
+        <v>5.640586715922</v>
       </c>
       <c r="S3">
-        <v>0.000976717510966603</v>
+        <v>0.1637057840990728</v>
       </c>
       <c r="T3">
-        <v>0.0009057907558341937</v>
+        <v>0.1516455969493637</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,46 +667,46 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.2222225</v>
+        <v>0.3050205</v>
       </c>
       <c r="H4">
-        <v>0.444445</v>
+        <v>0.6100410000000001</v>
       </c>
       <c r="I4">
-        <v>0.2026211956904957</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="J4">
-        <v>0.1780425712608937</v>
+        <v>0.1761044107725932</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.590216</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N4">
-        <v>1.180432</v>
+        <v>0.021442</v>
       </c>
       <c r="O4">
-        <v>0.1574944036566601</v>
+        <v>0.001872260034059031</v>
       </c>
       <c r="P4">
-        <v>0.1108137861605369</v>
+        <v>0.001996915128406244</v>
       </c>
       <c r="Q4">
-        <v>0.13115927506</v>
+        <v>0.002180083187</v>
       </c>
       <c r="R4">
-        <v>0.52463710024</v>
+        <v>0.013080499122</v>
       </c>
       <c r="S4">
-        <v>0.03191170438347406</v>
+        <v>0.0003796330901410885</v>
       </c>
       <c r="T4">
-        <v>0.01972957141917682</v>
+        <v>0.0003516655620508588</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,108 +729,108 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.2222225</v>
+        <v>0.3050205</v>
       </c>
       <c r="H5">
-        <v>0.444445</v>
+        <v>0.6100410000000001</v>
       </c>
       <c r="I5">
-        <v>0.2026211956904957</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="J5">
-        <v>0.1780425712608937</v>
+        <v>0.1761044107725932</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.057175</v>
+        <v>0.6418275</v>
       </c>
       <c r="N5">
-        <v>0.171525</v>
+        <v>1.283655</v>
       </c>
       <c r="O5">
-        <v>0.01525668997294134</v>
+        <v>0.1681281564700153</v>
       </c>
       <c r="P5">
-        <v>0.0161020157630309</v>
+        <v>0.1195480873591231</v>
       </c>
       <c r="Q5">
-        <v>0.0127055714375</v>
+        <v>0.19577054496375</v>
       </c>
       <c r="R5">
-        <v>0.07623342862499999</v>
+        <v>0.7830821798550001</v>
       </c>
       <c r="S5">
-        <v>0.00309132876459657</v>
+        <v>0.03409089037811718</v>
       </c>
       <c r="T5">
-        <v>0.002866844288933462</v>
+        <v>0.02105294548336887</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.2207143333333333</v>
+        <v>0.3050205</v>
       </c>
       <c r="H6">
-        <v>0.662143</v>
+        <v>0.6100410000000001</v>
       </c>
       <c r="I6">
-        <v>0.2012460580095654</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="J6">
-        <v>0.2652513635261999</v>
+        <v>0.1761044107725932</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.082080666666666</v>
+        <v>0.01335466666666667</v>
       </c>
       <c r="N6">
-        <v>9.246241999999999</v>
+        <v>0.040064</v>
       </c>
       <c r="O6">
-        <v>0.822428495022819</v>
+        <v>0.003498284954973465</v>
       </c>
       <c r="P6">
-        <v>0.8679967027127143</v>
+        <v>0.003731200807036086</v>
       </c>
       <c r="Q6">
-        <v>0.6802593796228888</v>
+        <v>0.004073447104</v>
       </c>
       <c r="R6">
-        <v>6.122334416606</v>
+        <v>0.024440682624</v>
       </c>
       <c r="S6">
-        <v>0.1655104926180818</v>
+        <v>0.0007093377541000174</v>
       </c>
       <c r="T6">
-        <v>0.2302373089307931</v>
+        <v>0.0006570809195973141</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -856,40 +859,40 @@
         <v>0.662143</v>
       </c>
       <c r="I7">
-        <v>0.2012460580095654</v>
+        <v>0.1467234066692216</v>
       </c>
       <c r="J7">
-        <v>0.2652513635261999</v>
+        <v>0.1911450260920121</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01806466666666667</v>
+        <v>0.07307950000000001</v>
       </c>
       <c r="N7">
-        <v>0.05419400000000001</v>
+        <v>0.146159</v>
       </c>
       <c r="O7">
-        <v>0.004820411347579554</v>
+        <v>0.01914333930962835</v>
       </c>
       <c r="P7">
-        <v>0.005087495363717806</v>
+        <v>0.01361193537229401</v>
       </c>
       <c r="Q7">
-        <v>0.003987130860222224</v>
+        <v>0.01612969312283333</v>
       </c>
       <c r="R7">
-        <v>0.03588417774200001</v>
+        <v>0.09677815873700002</v>
       </c>
       <c r="S7">
-        <v>0.000970088781684962</v>
+        <v>0.002808775958533496</v>
       </c>
       <c r="T7">
-        <v>0.001349465082159368</v>
+        <v>0.002601853741899922</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -918,40 +921,40 @@
         <v>0.662143</v>
       </c>
       <c r="I8">
-        <v>0.2012460580095654</v>
+        <v>0.1467234066692216</v>
       </c>
       <c r="J8">
-        <v>0.2652513635261999</v>
+        <v>0.1911450260920121</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.590216</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N8">
-        <v>1.180432</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O8">
-        <v>0.1574944036566601</v>
+        <v>0.8073579592313238</v>
       </c>
       <c r="P8">
-        <v>0.1108137861605369</v>
+        <v>0.8611118613331405</v>
       </c>
       <c r="Q8">
-        <v>0.1302691309626667</v>
+        <v>0.6802593796228888</v>
       </c>
       <c r="R8">
-        <v>0.781614785776</v>
+        <v>6.122334416606</v>
       </c>
       <c r="S8">
-        <v>0.03169512789447013</v>
+        <v>0.1184583101799303</v>
       </c>
       <c r="T8">
-        <v>0.02939350787658315</v>
+        <v>0.1645972492026643</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -980,54 +983,54 @@
         <v>0.662143</v>
       </c>
       <c r="I9">
-        <v>0.2012460580095654</v>
+        <v>0.1467234066692216</v>
       </c>
       <c r="J9">
-        <v>0.2652513635261999</v>
+        <v>0.1911450260920121</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.057175</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N9">
-        <v>0.171525</v>
+        <v>0.021442</v>
       </c>
       <c r="O9">
-        <v>0.01525668997294134</v>
+        <v>0.001872260034059031</v>
       </c>
       <c r="P9">
-        <v>0.0161020157630309</v>
+        <v>0.001996915128406244</v>
       </c>
       <c r="Q9">
-        <v>0.01261934200833333</v>
+        <v>0.001577518911777778</v>
       </c>
       <c r="R9">
-        <v>0.113574078075</v>
+        <v>0.014197670206</v>
       </c>
       <c r="S9">
-        <v>0.003070348715328506</v>
+        <v>0.000274704370367774</v>
       </c>
       <c r="T9">
-        <v>0.00427108163666431</v>
+        <v>0.0003817003943227452</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,60 +1039,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.08209333333333334</v>
+        <v>0.2207143333333333</v>
       </c>
       <c r="H10">
-        <v>0.24628</v>
+        <v>0.662143</v>
       </c>
       <c r="I10">
-        <v>0.07485222854669725</v>
+        <v>0.1467234066692216</v>
       </c>
       <c r="J10">
-        <v>0.09865860668954067</v>
+        <v>0.1911450260920121</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.082080666666666</v>
+        <v>0.6418275</v>
       </c>
       <c r="N10">
-        <v>9.246241999999999</v>
+        <v>1.283655</v>
       </c>
       <c r="O10">
-        <v>0.822428495022819</v>
+        <v>0.1681281564700153</v>
       </c>
       <c r="P10">
-        <v>0.8679967027127143</v>
+        <v>0.1195480873591231</v>
       </c>
       <c r="Q10">
-        <v>0.2530182755288889</v>
+        <v>0.1416605287775</v>
       </c>
       <c r="R10">
-        <v>2.27716447976</v>
+        <v>0.849963172665</v>
       </c>
       <c r="S10">
-        <v>0.06156060567276431</v>
+        <v>0.02466833587429658</v>
       </c>
       <c r="T10">
-        <v>0.08563534530075184</v>
+        <v>0.02285102227750972</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,46 +1101,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.08209333333333334</v>
+        <v>0.2207143333333333</v>
       </c>
       <c r="H11">
-        <v>0.24628</v>
+        <v>0.662143</v>
       </c>
       <c r="I11">
-        <v>0.07485222854669725</v>
+        <v>0.1467234066692216</v>
       </c>
       <c r="J11">
-        <v>0.09865860668954067</v>
+        <v>0.1911450260920121</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.01806466666666667</v>
+        <v>0.01335466666666667</v>
       </c>
       <c r="N11">
-        <v>0.05419400000000001</v>
+        <v>0.040064</v>
       </c>
       <c r="O11">
-        <v>0.004820411347579554</v>
+        <v>0.003498284954973465</v>
       </c>
       <c r="P11">
-        <v>0.005087495363717806</v>
+        <v>0.003731200807036086</v>
       </c>
       <c r="Q11">
-        <v>0.001482988702222223</v>
+        <v>0.002947566350222223</v>
       </c>
       <c r="R11">
-        <v>0.01334689832</v>
+        <v>0.026528097152</v>
       </c>
       <c r="S11">
-        <v>0.0003608185318781176</v>
+        <v>0.0005132802860933913</v>
       </c>
       <c r="T11">
-        <v>0.0005019252041238967</v>
+        <v>0.0007132004756154492</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1148,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.08209333333333334</v>
+        <v>0.06966766666666667</v>
       </c>
       <c r="H12">
-        <v>0.24628</v>
+        <v>0.209003</v>
       </c>
       <c r="I12">
-        <v>0.07485222854669725</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="J12">
-        <v>0.09865860668954067</v>
+        <v>0.06033422370742998</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.590216</v>
+        <v>0.07307950000000001</v>
       </c>
       <c r="N12">
-        <v>1.180432</v>
+        <v>0.146159</v>
       </c>
       <c r="O12">
-        <v>0.1574944036566601</v>
+        <v>0.01914333930962835</v>
       </c>
       <c r="P12">
-        <v>0.1108137861605369</v>
+        <v>0.01361193537229401</v>
       </c>
       <c r="Q12">
-        <v>0.04845279882666666</v>
+        <v>0.005091278246166667</v>
       </c>
       <c r="R12">
-        <v>0.29071679296</v>
+        <v>0.030547669477</v>
       </c>
       <c r="S12">
-        <v>0.01178880709733412</v>
+        <v>0.0008865797896547667</v>
       </c>
       <c r="T12">
-        <v>0.01093273374459127</v>
+        <v>0.0008212655538430661</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1210,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,232 +1225,232 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.08209333333333334</v>
+        <v>0.06966766666666667</v>
       </c>
       <c r="H13">
-        <v>0.24628</v>
+        <v>0.209003</v>
       </c>
       <c r="I13">
-        <v>0.07485222854669725</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="J13">
-        <v>0.09865860668954067</v>
+        <v>0.06033422370742998</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.057175</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N13">
-        <v>0.171525</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O13">
-        <v>0.01525668997294134</v>
+        <v>0.8073579592313238</v>
       </c>
       <c r="P13">
-        <v>0.0161020157630309</v>
+        <v>0.8611118613331405</v>
       </c>
       <c r="Q13">
-        <v>0.004693686333333333</v>
+        <v>0.2147213685251111</v>
       </c>
       <c r="R13">
-        <v>0.042243177</v>
+        <v>1.932492316726</v>
       </c>
       <c r="S13">
-        <v>0.001141997244720709</v>
+        <v>0.03739092945562512</v>
       </c>
       <c r="T13">
-        <v>0.001588602440073649</v>
+        <v>0.05195451567879512</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5717085</v>
+        <v>0.06966766666666667</v>
       </c>
       <c r="H14">
-        <v>1.143417</v>
+        <v>0.209003</v>
       </c>
       <c r="I14">
-        <v>0.5212805177532418</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="J14">
-        <v>0.4580474585233657</v>
+        <v>0.06033422370742998</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>3.082080666666666</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N14">
-        <v>9.246241999999999</v>
+        <v>0.021442</v>
       </c>
       <c r="O14">
-        <v>0.822428495022819</v>
+        <v>0.001872260034059031</v>
       </c>
       <c r="P14">
-        <v>0.8679967027127143</v>
+        <v>0.001996915128406244</v>
       </c>
       <c r="Q14">
-        <v>1.762051714819</v>
+        <v>0.0004979380362222222</v>
       </c>
       <c r="R14">
-        <v>10.572310288914</v>
+        <v>0.004481442326</v>
       </c>
       <c r="S14">
-        <v>0.4287159517005145</v>
+        <v>8.670942307020667E-05</v>
       </c>
       <c r="T14">
-        <v>0.3975836836842202</v>
+        <v>0.0001204823240820136</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5717085</v>
+        <v>0.06966766666666667</v>
       </c>
       <c r="H15">
-        <v>1.143417</v>
+        <v>0.209003</v>
       </c>
       <c r="I15">
-        <v>0.5212805177532418</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="J15">
-        <v>0.4580474585233657</v>
+        <v>0.06033422370742998</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.01806466666666667</v>
+        <v>0.6418275</v>
       </c>
       <c r="N15">
-        <v>0.05419400000000001</v>
+        <v>1.283655</v>
       </c>
       <c r="O15">
-        <v>0.004820411347579554</v>
+        <v>0.1681281564700153</v>
       </c>
       <c r="P15">
-        <v>0.005087495363717806</v>
+        <v>0.1195480873591231</v>
       </c>
       <c r="Q15">
-        <v>0.010327723483</v>
+        <v>0.0447146243275</v>
       </c>
       <c r="R15">
-        <v>0.061966340898</v>
+        <v>0.268287745965</v>
       </c>
       <c r="S15">
-        <v>0.002512786523049872</v>
+        <v>0.00778646939216394</v>
       </c>
       <c r="T15">
-        <v>0.002330314321600347</v>
+        <v>0.007212841046520712</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5717085</v>
+        <v>0.06966766666666667</v>
       </c>
       <c r="H16">
-        <v>1.143417</v>
+        <v>0.209003</v>
       </c>
       <c r="I16">
-        <v>0.5212805177532418</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="J16">
-        <v>0.4580474585233657</v>
+        <v>0.06033422370742998</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.590216</v>
+        <v>0.01335466666666667</v>
       </c>
       <c r="N16">
-        <v>1.180432</v>
+        <v>0.040064</v>
       </c>
       <c r="O16">
-        <v>0.1574944036566601</v>
+        <v>0.003498284954973465</v>
       </c>
       <c r="P16">
-        <v>0.1108137861605369</v>
+        <v>0.003731200807036086</v>
       </c>
       <c r="Q16">
-        <v>0.337431504036</v>
+        <v>0.0009303884657777779</v>
       </c>
       <c r="R16">
-        <v>1.349726016144</v>
+        <v>0.008373496192</v>
       </c>
       <c r="S16">
-        <v>0.08209876428138187</v>
+        <v>0.0001620150324542841</v>
       </c>
       <c r="T16">
-        <v>0.05075797312018563</v>
+        <v>0.0002251191041890584</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1458,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7437579999999999</v>
+      </c>
+      <c r="H17">
+        <v>1.487516</v>
+      </c>
+      <c r="I17">
+        <v>0.4944251052906407</v>
+      </c>
+      <c r="J17">
+        <v>0.4294106932071856</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.07307950000000001</v>
+      </c>
+      <c r="N17">
+        <v>0.146159</v>
+      </c>
+      <c r="O17">
+        <v>0.01914333930962835</v>
+      </c>
+      <c r="P17">
+        <v>0.01361193537229401</v>
+      </c>
+      <c r="Q17">
+        <v>0.054353462761</v>
+      </c>
+      <c r="R17">
+        <v>0.217413851044</v>
+      </c>
+      <c r="S17">
+        <v>0.009464947553777456</v>
+      </c>
+      <c r="T17">
+        <v>0.005845110604108181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.7437579999999999</v>
+      </c>
+      <c r="H18">
+        <v>1.487516</v>
+      </c>
+      <c r="I18">
+        <v>0.4944251052906407</v>
+      </c>
+      <c r="J18">
+        <v>0.4294106932071856</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.082080666666666</v>
+      </c>
+      <c r="N18">
+        <v>9.246241999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.8073579592313238</v>
+      </c>
+      <c r="P18">
+        <v>0.8611118613331405</v>
+      </c>
+      <c r="Q18">
+        <v>2.292322152478666</v>
+      </c>
+      <c r="R18">
+        <v>13.753932914872</v>
+      </c>
+      <c r="S18">
+        <v>0.3991780440001841</v>
+      </c>
+      <c r="T18">
+        <v>0.3697706413039937</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.7437579999999999</v>
+      </c>
+      <c r="H19">
+        <v>1.487516</v>
+      </c>
+      <c r="I19">
+        <v>0.4944251052906407</v>
+      </c>
+      <c r="J19">
+        <v>0.4294106932071856</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.007147333333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.021442</v>
+      </c>
+      <c r="O19">
+        <v>0.001872260034059031</v>
+      </c>
+      <c r="P19">
+        <v>0.001996915128406244</v>
+      </c>
+      <c r="Q19">
+        <v>0.005315886345333332</v>
+      </c>
+      <c r="R19">
+        <v>0.031895318072</v>
+      </c>
+      <c r="S19">
+        <v>0.0009256923644710951</v>
+      </c>
+      <c r="T19">
+        <v>0.000857496709564841</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.7437579999999999</v>
+      </c>
+      <c r="H20">
+        <v>1.487516</v>
+      </c>
+      <c r="I20">
+        <v>0.4944251052906407</v>
+      </c>
+      <c r="J20">
+        <v>0.4294106932071856</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.6418275</v>
+      </c>
+      <c r="N20">
+        <v>1.283655</v>
+      </c>
+      <c r="O20">
+        <v>0.1681281564700153</v>
+      </c>
+      <c r="P20">
+        <v>0.1195480873591231</v>
+      </c>
+      <c r="Q20">
+        <v>0.4773643377449999</v>
+      </c>
+      <c r="R20">
+        <v>1.90945735098</v>
+      </c>
+      <c r="S20">
+        <v>0.08312678146500865</v>
+      </c>
+      <c r="T20">
+        <v>0.05133522706447421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.7437579999999999</v>
+      </c>
+      <c r="H21">
+        <v>1.487516</v>
+      </c>
+      <c r="I21">
+        <v>0.4944251052906407</v>
+      </c>
+      <c r="J21">
+        <v>0.4294106932071856</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.01335466666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.040064</v>
+      </c>
+      <c r="O21">
+        <v>0.003498284954973465</v>
+      </c>
+      <c r="P21">
+        <v>0.003731200807036086</v>
+      </c>
+      <c r="Q21">
+        <v>0.009932640170666666</v>
+      </c>
+      <c r="R21">
+        <v>0.059595841024</v>
+      </c>
+      <c r="S21">
+        <v>0.00172963990719942</v>
+      </c>
+      <c r="T21">
+        <v>0.001602217525044576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.5717085</v>
-      </c>
-      <c r="H17">
-        <v>1.143417</v>
-      </c>
-      <c r="I17">
-        <v>0.5212805177532418</v>
-      </c>
-      <c r="J17">
-        <v>0.4580474585233657</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M17">
-        <v>0.057175</v>
-      </c>
-      <c r="N17">
-        <v>0.171525</v>
-      </c>
-      <c r="O17">
-        <v>0.01525668997294134</v>
-      </c>
-      <c r="P17">
-        <v>0.0161020157630309</v>
-      </c>
-      <c r="Q17">
-        <v>0.03268743348749999</v>
-      </c>
-      <c r="R17">
-        <v>0.196124600925</v>
-      </c>
-      <c r="S17">
-        <v>0.007953015248295552</v>
-      </c>
-      <c r="T17">
-        <v>0.007375487397359475</v>
+      <c r="G22">
+        <v>0.165128</v>
+      </c>
+      <c r="H22">
+        <v>0.495384</v>
+      </c>
+      <c r="I22">
+        <v>0.1097714966244839</v>
+      </c>
+      <c r="J22">
+        <v>0.1430056462207791</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.07307950000000001</v>
+      </c>
+      <c r="N22">
+        <v>0.146159</v>
+      </c>
+      <c r="O22">
+        <v>0.01914333930962835</v>
+      </c>
+      <c r="P22">
+        <v>0.01361193537229401</v>
+      </c>
+      <c r="Q22">
+        <v>0.012067471676</v>
+      </c>
+      <c r="R22">
+        <v>0.072404830056</v>
+      </c>
+      <c r="S22">
+        <v>0.002101393006408219</v>
+      </c>
+      <c r="T22">
+        <v>0.001946583614230386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.165128</v>
+      </c>
+      <c r="H23">
+        <v>0.495384</v>
+      </c>
+      <c r="I23">
+        <v>0.1097714966244839</v>
+      </c>
+      <c r="J23">
+        <v>0.1430056462207791</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.082080666666666</v>
+      </c>
+      <c r="N23">
+        <v>9.246241999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.8073579592313238</v>
+      </c>
+      <c r="P23">
+        <v>0.8611118613331405</v>
+      </c>
+      <c r="Q23">
+        <v>0.5089378163253333</v>
+      </c>
+      <c r="R23">
+        <v>4.580440346928</v>
+      </c>
+      <c r="S23">
+        <v>0.0886248914965115</v>
+      </c>
+      <c r="T23">
+        <v>0.1231438581983237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.165128</v>
+      </c>
+      <c r="H24">
+        <v>0.495384</v>
+      </c>
+      <c r="I24">
+        <v>0.1097714966244839</v>
+      </c>
+      <c r="J24">
+        <v>0.1430056462207791</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.007147333333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.021442</v>
+      </c>
+      <c r="O24">
+        <v>0.001872260034059031</v>
+      </c>
+      <c r="P24">
+        <v>0.001996915128406244</v>
+      </c>
+      <c r="Q24">
+        <v>0.001180224858666667</v>
+      </c>
+      <c r="R24">
+        <v>0.010622023728</v>
+      </c>
+      <c r="S24">
+        <v>0.0002055207860088671</v>
+      </c>
+      <c r="T24">
+        <v>0.0002855701383857849</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.165128</v>
+      </c>
+      <c r="H25">
+        <v>0.495384</v>
+      </c>
+      <c r="I25">
+        <v>0.1097714966244839</v>
+      </c>
+      <c r="J25">
+        <v>0.1430056462207791</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.6418275</v>
+      </c>
+      <c r="N25">
+        <v>1.283655</v>
+      </c>
+      <c r="O25">
+        <v>0.1681281564700153</v>
+      </c>
+      <c r="P25">
+        <v>0.1195480873591231</v>
+      </c>
+      <c r="Q25">
+        <v>0.10598369142</v>
+      </c>
+      <c r="R25">
+        <v>0.6359021485199999</v>
+      </c>
+      <c r="S25">
+        <v>0.01845567936042899</v>
+      </c>
+      <c r="T25">
+        <v>0.01709605148724954</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.165128</v>
+      </c>
+      <c r="H26">
+        <v>0.495384</v>
+      </c>
+      <c r="I26">
+        <v>0.1097714966244839</v>
+      </c>
+      <c r="J26">
+        <v>0.1430056462207791</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.01335466666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.040064</v>
+      </c>
+      <c r="O26">
+        <v>0.003498284954973465</v>
+      </c>
+      <c r="P26">
+        <v>0.003731200807036086</v>
+      </c>
+      <c r="Q26">
+        <v>0.002205229397333333</v>
+      </c>
+      <c r="R26">
+        <v>0.019847064576</v>
+      </c>
+      <c r="S26">
+        <v>0.0003840119751263527</v>
+      </c>
+      <c r="T26">
+        <v>0.0005335827825896878</v>
       </c>
     </row>
   </sheetData>
